--- a/Project/src/test/java/com/model/utilities/testFile2.xlsx
+++ b/Project/src/test/java/com/model/utilities/testFile2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Documents/GitHub/Team11/Project/src/test/java/com/model/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AA297-290E-D149-A278-307997E86735}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B3950-83FF-E444-B202-7B73BFF9F7B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{447609F5-85B7-7142-9598-C5D49E352059}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Example Template" sheetId="1" r:id="rId2"/>
     <sheet name="My Template" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>first_name</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>Process1</t>
+  </si>
+  <si>
+    <t>Process2</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FCDAAA-6521-904F-9272-DEBE0CF02169}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="193" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2097,7 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="121" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="121" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2096,59 +2105,71 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20</v>
       </c>
     </row>
